--- a/Datasets/Pobreza Monetaria/anexo_pobreza_monetaria_18_departamento-2021-2022.xlsx
+++ b/Datasets/Pobreza Monetaria/anexo_pobreza_monetaria_18_departamento-2021-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjchauxg/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/Pobreza Monetaria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3412604-63BE-AE4D-B1CA-1974FA55840B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{A3412604-63BE-AE4D-B1CA-1974FA55840B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1E3F51-F850-46BB-99C9-2C7AC976C161}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="931" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20385" yWindow="-5400" windowWidth="14610" windowHeight="17385" tabRatio="931" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Índice" sheetId="563" r:id="rId1"/>
@@ -657,13 +657,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Pts&quot;_-;\-* #,##0\ &quot;Pts&quot;_-;_-* &quot;-&quot;\ &quot;Pts&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;Pts&quot;_-;\-* #,##0\ &quot;Pts&quot;_-;_-* &quot;-&quot;\ &quot;Pts&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -1158,19 +1158,19 @@
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1211,22 +1211,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1241,22 +1241,22 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1274,61 +1274,61 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="5" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="5" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,16 +1412,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,7 +1459,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="28" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1483,40 +1483,40 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="18" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="18" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="18" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="18" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1531,7 +1531,7 @@
     <xf numFmtId="2" fontId="9" fillId="8" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1751,7 +1751,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6210300" cy="457200"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -1985,7 +1985,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6076950" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -2219,7 +2219,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6051550" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -2453,7 +2453,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6083300" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -2687,7 +2687,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6083300" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -2921,7 +2921,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6083300" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -3155,7 +3155,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6083300" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -3389,7 +3389,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6070600" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -3623,7 +3623,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6067425" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -3857,7 +3857,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6083300" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -4091,7 +4091,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6083300" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -4325,7 +4325,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6111875" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -4559,7 +4559,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6108700" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -4793,7 +4793,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6121400" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -5027,7 +5027,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6089650" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -5261,7 +5261,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6083300" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -5495,7 +5495,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="460375"/>
+          <a:ext cx="6086475" cy="434975"/>
           <a:chOff x="288407" y="268532"/>
           <a:chExt cx="6203496" cy="447675"/>
         </a:xfrm>
@@ -6051,23 +6051,23 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="6.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="125"/>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -6076,7 +6076,7 @@
       <c r="F1" s="126"/>
       <c r="G1" s="126"/>
     </row>
-    <row r="2" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="127"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -6085,7 +6085,7 @@
       <c r="F2" s="128"/>
       <c r="G2" s="128"/>
     </row>
-    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="127"/>
       <c r="B3" s="128"/>
       <c r="C3" s="128"/>
@@ -6094,7 +6094,7 @@
       <c r="F3" s="128"/>
       <c r="G3" s="128"/>
     </row>
-    <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="127"/>
       <c r="B4" s="128"/>
       <c r="C4" s="128"/>
@@ -6103,7 +6103,7 @@
       <c r="F4" s="128"/>
       <c r="G4" s="128"/>
     </row>
-    <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="129"/>
       <c r="B5" s="130"/>
       <c r="C5" s="130"/>
@@ -6112,7 +6112,7 @@
       <c r="F5" s="130"/>
       <c r="G5" s="130"/>
     </row>
-    <row r="6" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="131" t="s">
         <v>0</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="F6" s="132"/>
       <c r="G6" s="132"/>
     </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="133"/>
       <c r="B7" s="134"/>
       <c r="C7" s="134"/>
@@ -6132,7 +6132,7 @@
       <c r="F7" s="134"/>
       <c r="G7" s="134"/>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="135" t="s">
         <v>1</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="F8" s="135"/>
       <c r="G8" s="135"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="136"/>
       <c r="B9" s="136"/>
       <c r="C9" s="136"/>
@@ -6152,7 +6152,7 @@
       <c r="F9" s="136"/>
       <c r="G9" s="136"/>
     </row>
-    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="136"/>
       <c r="B10" s="136"/>
       <c r="C10" s="136"/>
@@ -6161,7 +6161,7 @@
       <c r="F10" s="136"/>
       <c r="G10" s="136"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>2</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="F11" s="124"/>
       <c r="G11" s="124"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>4</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="F12" s="124"/>
       <c r="G12" s="124"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6200,7 @@
       <c r="F13" s="124"/>
       <c r="G13" s="124"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>8</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="F14" s="124"/>
       <c r="G14" s="124"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>10</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>12</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="F16" s="75"/>
       <c r="G16" s="75"/>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>14</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="F17" s="75"/>
       <c r="G17" s="75"/>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>18</v>
       </c>
@@ -6278,7 +6278,7 @@
       <c r="F19" s="75"/>
       <c r="G19" s="75"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>20</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="F20" s="75"/>
       <c r="G20" s="75"/>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>22</v>
       </c>
@@ -6304,7 +6304,7 @@
       <c r="F21" s="75"/>
       <c r="G21" s="75"/>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>24</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="F22" s="75"/>
       <c r="G22" s="75"/>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>26</v>
       </c>
@@ -6330,7 +6330,7 @@
       <c r="F23" s="75"/>
       <c r="G23" s="75"/>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>28</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="F24" s="75"/>
       <c r="G24" s="75"/>
     </row>
-    <row r="25" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>30</v>
       </c>
@@ -6357,7 +6357,7 @@
       <c r="G25" s="75"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>32</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="G26" s="75"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
     </row>
@@ -6436,22 +6436,22 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF80053A"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="F20" sqref="F20"/>
-      <selection pane="topRight" sqref="A1:A5"/>
+      <selection pane="topRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -6474,7 +6474,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
         <v>98</v>
       </c>
@@ -6491,7 +6491,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>96</v>
       </c>
@@ -6789,30 +6789,30 @@
         <v>396864</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A46" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="92" t="s">
         <v>67</v>
       </c>
@@ -6846,21 +6846,21 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF80053A"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="F20" sqref="F20"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -6883,7 +6883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
         <v>101</v>
       </c>
@@ -6900,7 +6900,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>96</v>
       </c>
@@ -7198,30 +7198,30 @@
         <v>198698</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A46" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="92" t="s">
         <v>67</v>
       </c>
@@ -7264,10 +7264,10 @@
       <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -7307,7 +7307,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -7605,35 +7605,35 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="94" t="s">
         <v>69</v>
       </c>
@@ -7666,10 +7666,10 @@
       <selection pane="topRight" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -7692,7 +7692,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
         <v>105</v>
       </c>
@@ -7709,7 +7709,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -8011,35 +8011,35 @@
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="94" t="s">
         <v>69</v>
       </c>
@@ -8072,41 +8072,41 @@
       <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="63.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="137"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="137"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="137"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="137"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="137"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8122,7 +8122,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
         <v>107</v>
       </c>
@@ -8131,42 +8131,42 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="144"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="144"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="144"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="38">
         <v>2021</v>
@@ -8197,7 +8197,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>39</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
@@ -8236,7 +8236,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
@@ -8249,7 +8249,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>43</v>
       </c>
@@ -8262,7 +8262,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
@@ -8288,7 +8288,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>46</v>
       </c>
@@ -8301,7 +8301,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>47</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>48</v>
       </c>
@@ -8327,7 +8327,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>49</v>
       </c>
@@ -8340,7 +8340,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>50</v>
       </c>
@@ -8353,7 +8353,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>51</v>
       </c>
@@ -8366,7 +8366,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>52</v>
       </c>
@@ -8379,7 +8379,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>53</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>54</v>
       </c>
@@ -8405,7 +8405,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>55</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>56</v>
       </c>
@@ -8431,7 +8431,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>57</v>
       </c>
@@ -8444,7 +8444,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>58</v>
       </c>
@@ -8457,7 +8457,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>59</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>60</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>61</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>62</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>63</v>
       </c>
@@ -8522,152 +8522,152 @@
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="95"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -8699,10 +8699,10 @@
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -8725,7 +8725,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
         <v>109</v>
       </c>
@@ -8742,7 +8742,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -9040,35 +9040,35 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="94" t="s">
         <v>69</v>
       </c>
@@ -9102,10 +9102,10 @@
       <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.83203125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="61.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -9145,7 +9145,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -9615,35 +9615,35 @@
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="94" t="s">
         <v>69</v>
       </c>
@@ -9674,16 +9674,16 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="F23" sqref="F23"/>
       <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.5" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="61.42578125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -9723,7 +9723,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -10193,35 +10193,35 @@
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="94" t="s">
         <v>69</v>
       </c>
@@ -10248,19 +10248,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF80053A"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -10300,7 +10300,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="138"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -10598,30 +10598,30 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
@@ -10651,19 +10651,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF80053A"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F30" sqref="F30"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -10703,7 +10703,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="140"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -11001,30 +11001,30 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
@@ -11057,25 +11057,25 @@
   </sheetPr>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11098,7 +11098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="138" t="s">
         <v>73</v>
       </c>
@@ -11115,7 +11115,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="138"/>
     </row>
-    <row r="13" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -12025,40 +12025,40 @@
       <c r="J40" s="97"/>
       <c r="K40" s="97"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="98"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="88" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A45" s="88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="88" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="89" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="73.5" x14ac:dyDescent="0.2">
       <c r="A48" s="89" t="s">
         <v>84</v>
       </c>
@@ -12098,20 +12098,20 @@
       <selection pane="topRight" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -12134,7 +12134,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="140" t="s">
         <v>86</v>
       </c>
@@ -12151,7 +12151,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="140"/>
     </row>
-    <row r="13" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -13061,42 +13061,42 @@
       <c r="J40" s="97"/>
       <c r="K40" s="97"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="88" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="88" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A47" s="89" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="73.5" x14ac:dyDescent="0.2">
       <c r="A48" s="89" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="94" t="s">
         <v>69</v>
       </c>
@@ -13132,11 +13132,11 @@
       <selection pane="topRight" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -13159,7 +13159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
         <v>88</v>
       </c>
@@ -13176,7 +13176,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
@@ -13474,30 +13474,30 @@
         <v>18332</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
@@ -13536,11 +13536,11 @@
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -13563,7 +13563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
         <v>91</v>
       </c>
@@ -13580,7 +13580,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
@@ -13878,30 +13878,30 @@
         <v>6905</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
@@ -13930,20 +13930,20 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF80053A"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A5"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="29"/>
-    <col min="3" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -13966,7 +13966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="140" t="s">
         <v>93</v>
       </c>
@@ -13983,7 +13983,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="140"/>
     </row>
-    <row r="13" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14279,11 +14279,11 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
       <c r="B42" s="78"/>
     </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
@@ -14291,7 +14291,7 @@
       <c r="C43"/>
       <c r="D43" s="34"/>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
@@ -14299,7 +14299,7 @@
       <c r="C44"/>
       <c r="D44" s="34"/>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
@@ -14307,13 +14307,13 @@
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="78"/>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
@@ -14343,20 +14343,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF80053A"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="63.85546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -14379,7 +14379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
         <v>95</v>
       </c>
@@ -14396,7 +14396,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
     </row>
-    <row r="13" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>96</v>
       </c>
@@ -14697,30 +14697,30 @@
         <v>919151</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>68</v>
       </c>
